--- a/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>35,3%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,75%</t>
+          <t>80,31%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>74,85%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>75,78%</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>38,37%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>60,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,07%</t>
+          <t>68,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66,81%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>66,81%</t>
+          <t>66,93%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>40,27%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,41%</t>
+          <t>71,56%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>60,63%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>65,16%</t>
+          <t>65,55%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>36,87%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>60,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>62,05%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>78,33%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>63,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>74,13%</t>
         </is>
       </c>
     </row>
@@ -1559,19 +1559,19 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>617</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>440290</v>
+        <v>440291</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>58,51%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>64,34%</t>
+          <t>64,49%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>64,53%</t>
+          <t>64,31%</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>1559</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1146276</v>
+        <v>1146277</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>37,67%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>62,99%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>67,25%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>65,7%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">

--- a/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>34,8%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,63%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,31%</t>
+          <t>80,75%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>61,79%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,85%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>64,7%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>75,69%</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>38,31%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,86%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,93%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60,44%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66,77%</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>61,63%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>66,81%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>40,67%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>62,09%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,56%</t>
+          <t>71,41%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>60,98%</t>
+          <t>60,63%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>59,73%</t>
+          <t>59,33%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>65,16%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>36,92%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>60,82%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,24%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>62,15%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>78,55%</t>
+          <t>78,33%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>73,59%</t>
         </is>
       </c>
     </row>
@@ -1559,19 +1559,19 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>617</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>440291</v>
+        <v>440290</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>59,95%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>58,51%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>64,34%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>64,31%</t>
+          <t>64,53%</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>1559</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1146277</v>
+        <v>1146276</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>37,66%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>67,09%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>67,25%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>65,92%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>28600</v>
+        <v>204817</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>40421</v>
+        <v>231123</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>120</v>
+        <v>705</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>69021</v>
+        <v>435941</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>35,58%</t>
         </is>
       </c>
     </row>
@@ -750,66 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>73382</v>
+        <v>430624</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>67,77%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,75%</t>
+          <t>71,35%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>162</v>
+        <v>794</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>90312</v>
+        <v>443495</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,08%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>62,78%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>68,52%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>241</v>
+        <v>1261</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>163694</v>
+        <v>874119</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>66,72%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>64,42%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>69,11%</t>
         </is>
       </c>
     </row>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>130733</v>
+        <v>674618</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>361</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>232715</v>
+        <v>1310060</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -896,66 +896,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>224</v>
+        <v>361</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>192150</v>
+        <v>325731</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>361</v>
+        <v>628</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>214180</v>
+        <v>392567</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>585</v>
+        <v>989</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>406330</v>
+        <v>718298</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>38,33%</t>
         </is>
       </c>
     </row>
@@ -967,66 +967,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>388</v>
+        <v>603</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>357673</v>
+        <v>867133</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65,05%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>64,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,07%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>632</v>
+        <v>887</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>377564</v>
+        <v>564997</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66,81%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>1020</v>
+        <v>1490</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>735236</v>
+        <v>1432130</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>64,41%</t>
+          <t>66,6%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>66,81%</t>
+          <t>77,7%</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>993</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>591744</v>
+        <v>957564</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>1605</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1141566</v>
+        <v>2150428</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1113,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>354692</v>
+        <v>234359</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>628</v>
+        <v>387</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>444288</v>
+        <v>252674</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>989</v>
+        <v>633</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>798981</v>
+        <v>487033</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>35,04%</t>
         </is>
       </c>
     </row>
@@ -1184,66 +1184,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>603</v>
+        <v>430</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>684556</v>
+        <v>470321</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,41%</t>
+          <t>70,88%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>887</v>
+        <v>659</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>614556</v>
+        <v>679961</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>72,91%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>60,63%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>1490</v>
+        <v>1089</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1299111</v>
+        <v>1150283</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>61,92%</t>
+          <t>70,25%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>64,96%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>65,16%</t>
+          <t>79,53%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1515</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1058844</v>
+        <v>932635</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>2479</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2098092</v>
+        <v>1637316</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1330,66 +1330,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>246</v>
+        <v>416</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>253540</v>
+        <v>326756</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>387</v>
+        <v>617</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>281637</v>
+        <v>387269</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>633</v>
+        <v>1033</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>535177</v>
+        <v>714025</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>37,79%</t>
         </is>
       </c>
     </row>
@@ -1401,66 +1401,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>475232</v>
+        <v>600075</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>659</v>
+        <v>942</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>591945</v>
+        <v>704032</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>61,17%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>78,33%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>1089</v>
+        <v>1532</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1067177</v>
+        <v>1304108</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>64,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>68,49%</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>873582</v>
+        <v>1091301</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>1722</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1602354</v>
+        <v>2018133</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1547,66 +1547,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>416</v>
+        <v>1286</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>356302</v>
+        <v>1091663</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>617</v>
+        <v>2074</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>440290</v>
+        <v>1263634</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>1033</v>
+        <v>3360</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>796593</v>
+        <v>2355296</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>35,37%</t>
         </is>
       </c>
     </row>
@@ -1618,66 +1618,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>590</v>
+        <v>2090</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>609101</v>
+        <v>2368154</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>63,09%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>942</v>
+        <v>3282</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>705986</v>
+        <v>2392485</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61,59%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>64,34%</t>
+          <t>71,64%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>1532</v>
+        <v>5372</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1315087</v>
+        <v>4760640</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>62,28%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>64,53%</t>
+          <t>72,12%</t>
         </is>
       </c>
     </row>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>1559</v>
+        <v>5356</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1146276</v>
+        <v>3656119</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>2565</v>
+        <v>8732</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2111680</v>
+        <v>7115936</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1753,237 +1753,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>1286</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>1185285</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>35,01%</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>32,8%</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>37,09%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2074</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1420816</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>37,38%</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>33,59%</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>39,22%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>3360</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>2606102</v>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>36,26%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>34,08%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>37,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>2090</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>2199943</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>64,99%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>62,91%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>67,2%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>3282</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2380362</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>62,62%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>60,78%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>66,41%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>5372</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>4580305</v>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>63,74%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>62,34%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>65,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>5356</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>3801178</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>8732</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>7186407</v>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="M1:Q1"/>

--- a/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+          <t>Población según si su médico u otra persona le ha aconsejado que realice algún tipo de ejercicio físico en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>204817</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41884</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>30470</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>54834</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>442</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>231123</v>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>42141</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>705</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>435941</v>
+          <t>32691</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53977</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>84024</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>67695</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>100933</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>467</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>430624</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10988</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67,77%</t>
+          <t>6242</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,93%</t>
+          <t>19135</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>71,35%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>794</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>443495</v>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,74%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>11820</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>68,52%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>1261</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>874119</v>
+          <t>7623</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17504</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>64,42%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>22807</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16140</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>32841</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -817,145 +949,225 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>730</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>635441</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>151946</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>132323</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>175937</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1236</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>674618</v>
+          <t>23,91%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27,69%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>356</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>177163</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>1966</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>1310060</v>
+          <t>158259</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>194246</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26,26%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>329109</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>302784</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>357366</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>23,11%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>10-50.000 hab</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>361</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>325731</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>430624</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>406452</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>453366</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>392567</v>
+          <t>67,77%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>63,96%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>71,35%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>794</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>443495</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>989</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>718298</v>
+          <t>423050</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>462579</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65,74%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>874119</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>841939</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>904277</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>66,72%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>64,27%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>69,03%</t>
         </is>
       </c>
     </row>
@@ -963,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>603</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>867133</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>635441</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>635441</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,47%</t>
+          <t>635441</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>887</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>564997</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,0%</t>
+          <t>1236</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,98%</t>
+          <t>674618</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>1490</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>1432130</v>
+          <t>674618</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>674618</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1310060</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1310060</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1310060</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>964</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1192864</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>90721</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>49206</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>123807</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1515</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>957564</v>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>106253</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>2479</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>2150428</v>
+          <t>91134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>125753</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>196974</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>136360</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>&gt;50.000 hab</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>246</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>234359</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32523</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>16485</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>48953</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>387</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>252674</v>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>37000</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>633</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>487033</v>
+          <t>27484</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47624</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>69523</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>44900</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>87955</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>430</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>470321</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>202487</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>110079</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>267279</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,88%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>659</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>679961</v>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,91%</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,95%</t>
+          <t>249314</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>1089</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>1150283</v>
+          <t>226791</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>272342</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>70,25%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>79,53%</t>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>451801</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>303284</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>523401</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
         </is>
       </c>
     </row>
@@ -1251,216 +1631,342 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>676</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>704680</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>867133</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>768441</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1016848</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1046</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>932635</v>
+          <t>72,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64,42%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>85,24%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>887</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>564997</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>1722</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>1637316</v>
+          <t>537226</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>587283</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59,0%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>61,33%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1432130</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1325659</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1662180</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>66,6%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>61,65%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>77,3%</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Capitales</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>416</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>326756</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1192864</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>1192864</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>1192864</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>617</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>387269</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>957564</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>1033</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>714025</v>
+          <t>957564</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>957564</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2150428</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2150428</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2150428</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>600075</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69550</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>51887</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>94033</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>942</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>704032</v>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>64,51%</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>54763</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>71,66%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>1532</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>1304108</v>
+          <t>28283</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>78354</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>62,21%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>68,49%</t>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>124313</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>77259</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>156149</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -1468,145 +1974,225 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>926831</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12949</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7480</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>21626</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1559</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1091301</v>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>24943</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>2565</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>2018133</v>
+          <t>12406</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40353</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>37892</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>23920</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>51841</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1286</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>1091663</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>151859</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>129369</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>173306</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2074</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1263634</v>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>172969</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>3360</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>2355296</v>
+          <t>86958</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>234225</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,55%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>324829</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>213705</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>385582</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
         </is>
       </c>
     </row>
@@ -1617,67 +2203,109 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>2090</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>2368154</v>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>470321</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>442725</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>498735</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3282</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2392485</v>
+          <t>66,74%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>62,83%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>70,77%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>659</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>679961</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>5372</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>4760640</v>
+          <t>593722</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>802443</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>72,91%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>63,66%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1150283</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1062049</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1327743</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>70,25%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>64,87%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>81,09%</t>
         </is>
       </c>
     </row>
@@ -1688,20 +2316,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>3376</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>3459817</v>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>704680</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>704680</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>704680</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1709,32 +2341,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>5356</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>3656119</v>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>932635</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>8732</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>7115936</v>
+          <t>932635</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>932635</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1747,13 +2387,1181 @@
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1722</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1637316</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1637316</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1637316</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>48629</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35518</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>62361</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>49646</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>36825</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>63474</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>98275</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>80088</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>117104</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>26509</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>18023</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>37452</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>31549</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>21866</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>42817</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>58059</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>46277</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>73361</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>251618</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>225118</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>280289</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>24,29%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>306074</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>249190</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>338571</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>22,83%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>31,02%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>557691</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>488110</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>600797</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>24,19%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>600075</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>571079</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>630758</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>64,74%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>61,62%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>68,06%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>704032</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>667360</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>780293</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>64,51%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>61,15%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>71,5%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1304108</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1254011</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1388790</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>64,62%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>62,14%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>68,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>926831</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>926831</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>926831</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1091301</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1091301</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1091301</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2018133</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>2018133</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>2018133</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>250784</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>197361</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>291370</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>252802</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>204602</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>286856</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>503586</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>431360</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>558136</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>82969</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>62702</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>103078</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>105312</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>84247</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>125935</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>188281</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>155565</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>218111</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>757910</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>596184</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>838612</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>905520</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>748005</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>980549</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>2464</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>1663430</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>1442636</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>1778575</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>24,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2368154</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2254994</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2597568</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>65,18%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>75,08%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2392485</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2294154</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2612763</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>65,44%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>62,75%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>71,46%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>4760640</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>4606494</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>5082941</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>64,73%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5356</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>8732</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -1761,15 +3569,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
